--- a/public/export/danhgiagiaovien.xlsx
+++ b/public/export/danhgiagiaovien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Mã TCM</t>
   </si>
@@ -81,46 +81,22 @@
     <t>TC 15</t>
   </si>
   <si>
-    <t>Mai Thị Trường An</t>
-  </si>
-  <si>
-    <t>Tổ Hóa - Sinh - CN</t>
-  </si>
-  <si>
-    <t>Phạm Đình Tuấn</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Tuyền</t>
-  </si>
-  <si>
-    <t>Khổng Thị Xuân Diệu</t>
-  </si>
-  <si>
-    <t>Trần Minh Sen</t>
-  </si>
-  <si>
-    <t>Nguyễn  Thị Chín</t>
-  </si>
-  <si>
-    <t>Võ Văn Lâm</t>
-  </si>
-  <si>
-    <t>Lương  Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Đỗ Hồng Quang</t>
-  </si>
-  <si>
-    <t>Lê Văn Viến</t>
-  </si>
-  <si>
-    <t>Ngô Tùng Đức</t>
-  </si>
-  <si>
-    <t>Võ Thị Nhàn</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đồng</t>
+    <t>Nguyễn Thị T.Huệ</t>
+  </si>
+  <si>
+    <t>Tổ Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Lê Thị TSen</t>
+  </si>
+  <si>
+    <t>Tống Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Sơn</t>
+  </si>
+  <si>
+    <t>Mai Thị Phương Thu</t>
   </si>
   <si>
     <t xml:space="preserve">Quy định xếp loại : </t>
@@ -204,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -292,6 +268,20 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
       </bottom>
     </border>
   </borders>
@@ -347,8 +337,8 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +639,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,8 +651,8 @@
     <col min="2" max="2" width="6.998291" hidden="true" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" hidden="true" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -770,10 +760,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="16">
-        <v>3328</v>
+        <v>3293</v>
       </c>
       <c r="C3" s="16">
         <v>2020</v>
@@ -790,10 +780,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="16">
-        <v>3323</v>
+        <v>3292</v>
       </c>
       <c r="C4" s="16">
         <v>2020</v>
@@ -810,10 +800,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="16">
-        <v>3322</v>
+        <v>3290</v>
       </c>
       <c r="C5" s="16">
         <v>2020</v>
@@ -830,10 +820,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="16">
-        <v>3321</v>
+        <v>3291</v>
       </c>
       <c r="C6" s="16">
         <v>2020</v>
@@ -850,10 +840,10 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="16">
-        <v>3320</v>
+        <v>3289</v>
       </c>
       <c r="C7" s="16">
         <v>2020</v>
@@ -865,166 +855,6 @@
         <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="16">
-        <v>174</v>
-      </c>
-      <c r="B8" s="16">
-        <v>3319</v>
-      </c>
-      <c r="C8" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D8" s="16">
-        <v>6</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="16">
-        <v>174</v>
-      </c>
-      <c r="B9" s="16">
-        <v>3318</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="16">
-        <v>7</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="16">
-        <v>174</v>
-      </c>
-      <c r="B10" s="16">
-        <v>3313</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="16">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="16">
-        <v>174</v>
-      </c>
-      <c r="B11" s="16">
-        <v>3311</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="16">
-        <v>9</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="16">
-        <v>174</v>
-      </c>
-      <c r="B12" s="16">
-        <v>3312</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D12" s="16">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="16">
-        <v>174</v>
-      </c>
-      <c r="B13" s="16">
-        <v>3310</v>
-      </c>
-      <c r="C13" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D13" s="16">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="16">
-        <v>174</v>
-      </c>
-      <c r="B14" s="16">
-        <v>3308</v>
-      </c>
-      <c r="C14" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D14" s="16">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="16">
-        <v>174</v>
-      </c>
-      <c r="B15" s="16">
-        <v>3307</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D15" s="16">
-        <v>13</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1097,7 +927,7 @@
     <row r="3" spans="1:6">
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -1111,7 +941,7 @@
     <row r="5" spans="1:6">
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1119,7 +949,7 @@
     <row r="6" spans="1:6">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1127,7 +957,7 @@
     <row r="7" spans="1:6">
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -1135,7 +965,7 @@
     <row r="8" spans="1:6">
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>

--- a/public/export/danhgiagiaovien.xlsx
+++ b/public/export/danhgiagiaovien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Mã TCM</t>
   </si>
@@ -81,22 +81,193 @@
     <t>TC 15</t>
   </si>
   <si>
+    <t>Nguyễn Thị Cang</t>
+  </si>
+  <si>
+    <t>Tổ Ngữ văn</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Huệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thanh</t>
+  </si>
+  <si>
+    <t>Võ Thị Thuận</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc Hân</t>
+  </si>
+  <si>
+    <t>Hồ Đình Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thao</t>
+  </si>
+  <si>
+    <t>Đinh Thị Mỹ Hiệp</t>
+  </si>
+  <si>
+    <t>Lê Công Thơ</t>
+  </si>
+  <si>
+    <t>Tổ Sử - Địa - GDCD</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thắm</t>
+  </si>
+  <si>
+    <t>Phan Thị Thu Văn</t>
+  </si>
+  <si>
+    <t>Lê  Văn Lân</t>
+  </si>
+  <si>
+    <t>Đồng  Thị Nữ</t>
+  </si>
+  <si>
+    <t>Lê  Hữu Nhương</t>
+  </si>
+  <si>
+    <t>Phạm Đình Tiếng</t>
+  </si>
+  <si>
+    <t>Phan Thanh Hải</t>
+  </si>
+  <si>
+    <t>Phan Thị Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Nguyễn  Thị Thơ</t>
+  </si>
+  <si>
+    <t>Tổ Toán - Lý</t>
+  </si>
+  <si>
+    <t>Đỗ  Thị Vâng</t>
+  </si>
+  <si>
+    <t>Phan Thị Hay</t>
+  </si>
+  <si>
+    <t>Phan Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>Lê Thái Ninh</t>
+  </si>
+  <si>
+    <t>Lê Hận</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đồng</t>
+  </si>
+  <si>
+    <t>Võ Thị Nhàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Trường Thi</t>
+  </si>
+  <si>
+    <t>Ngô Tùng Đức</t>
+  </si>
+  <si>
+    <t>Đỗ Hồng Quang</t>
+  </si>
+  <si>
+    <t>Lê Văn Viến</t>
+  </si>
+  <si>
+    <t>Lương  Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Đinh Thị Ngọc N.Thuận</t>
+  </si>
+  <si>
+    <t>Trần Cao Hoàng</t>
+  </si>
+  <si>
+    <t>Tổ chủ nhiệm</t>
+  </si>
+  <si>
+    <t>Tống Thị Thu Hiền</t>
+  </si>
+  <si>
     <t>Nguyễn Thị T.Huệ</t>
   </si>
   <si>
+    <t>Hồ Đắc Duy</t>
+  </si>
+  <si>
+    <t>Mai Công Tình</t>
+  </si>
+  <si>
+    <t>Vương Quốc Long</t>
+  </si>
+  <si>
+    <t>Võ Văn Lâm</t>
+  </si>
+  <si>
+    <t>Nguyễn  Thị Chín</t>
+  </si>
+  <si>
+    <t>Khổng Thị Xuân Diệu</t>
+  </si>
+  <si>
+    <t>Mai Thị Trường An</t>
+  </si>
+  <si>
+    <t>Mai Thị Phương Thu</t>
+  </si>
+  <si>
     <t>Tổ Ngoại ngữ</t>
   </si>
   <si>
+    <t>Nguyễn Thị Sơn</t>
+  </si>
+  <si>
     <t>Lê Thị TSen</t>
   </si>
   <si>
-    <t>Tống Thị Thu Hiền</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Sơn</t>
-  </si>
-  <si>
-    <t>Mai Thị Phương Thu</t>
+    <t>Lý  Quốc Sinh</t>
+  </si>
+  <si>
+    <t>Tổ Tin - TD - Nhạc - MT</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mĩ Dưỡng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tiến</t>
+  </si>
+  <si>
+    <t>Đinh Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Nguyễn  Xuân Hoà</t>
+  </si>
+  <si>
+    <t>Đinh Lê Thị.Như Trang</t>
+  </si>
+  <si>
+    <t>Phạm Quang Trung</t>
+  </si>
+  <si>
+    <t>Tổ Hóa - Sinh - CN</t>
+  </si>
+  <si>
+    <t>Trần Minh Sen</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Tuyền</t>
+  </si>
+  <si>
+    <t>Phạm Đình Tuấn</t>
   </si>
   <si>
     <t xml:space="preserve">Quy định xếp loại : </t>
@@ -639,10 +810,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="A103" sqref="A103:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,8 +822,8 @@
     <col min="2" max="2" width="6.998291" hidden="true" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="8.140869" hidden="true" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="5.855713" bestFit="true" customWidth="true" style="0"/>
@@ -760,10 +931,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="16">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="16">
-        <v>3293</v>
+        <v>3275</v>
       </c>
       <c r="C3" s="16">
         <v>2020</v>
@@ -780,10 +951,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="16">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" s="16">
-        <v>3292</v>
+        <v>3276</v>
       </c>
       <c r="C4" s="16">
         <v>2020</v>
@@ -800,10 +971,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="16">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="16">
-        <v>3290</v>
+        <v>3278</v>
       </c>
       <c r="C5" s="16">
         <v>2020</v>
@@ -820,10 +991,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="16">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" s="16">
-        <v>3291</v>
+        <v>3279</v>
       </c>
       <c r="C6" s="16">
         <v>2020</v>
@@ -840,10 +1011,10 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="16">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" s="16">
-        <v>3289</v>
+        <v>3280</v>
       </c>
       <c r="C7" s="16">
         <v>2020</v>
@@ -856,6 +1027,1926 @@
       </c>
       <c r="F7" s="16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="16">
+        <v>168</v>
+      </c>
+      <c r="B8" s="16">
+        <v>3281</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="16">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="16">
+        <v>168</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3282</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="16">
+        <v>168</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3283</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="16">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="16">
+        <v>168</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3284</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="16">
+        <v>9</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="16">
+        <v>168</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3329</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="16">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="16">
+        <v>169</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3276</v>
+      </c>
+      <c r="C13" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="16">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="16">
+        <v>169</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3278</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="16">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="16">
+        <v>169</v>
+      </c>
+      <c r="B15" s="16">
+        <v>3280</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="16">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="16">
+        <v>169</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3281</v>
+      </c>
+      <c r="C16" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="16">
+        <v>169</v>
+      </c>
+      <c r="B17" s="16">
+        <v>3282</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="16">
+        <v>15</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="16">
+        <v>169</v>
+      </c>
+      <c r="B18" s="16">
+        <v>3283</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="16">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="16">
+        <v>169</v>
+      </c>
+      <c r="B19" s="16">
+        <v>3285</v>
+      </c>
+      <c r="C19" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="16">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="16">
+        <v>169</v>
+      </c>
+      <c r="B20" s="16">
+        <v>3286</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="16">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="16">
+        <v>169</v>
+      </c>
+      <c r="B21" s="16">
+        <v>3287</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="16">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="16">
+        <v>169</v>
+      </c>
+      <c r="B22" s="16">
+        <v>3288</v>
+      </c>
+      <c r="C22" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="16">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="16">
+        <v>169</v>
+      </c>
+      <c r="B23" s="16">
+        <v>3324</v>
+      </c>
+      <c r="C23" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="16">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="16">
+        <v>169</v>
+      </c>
+      <c r="B24" s="16">
+        <v>3325</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="16">
+        <v>22</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="16">
+        <v>169</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3326</v>
+      </c>
+      <c r="C25" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="16">
+        <v>23</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="16">
+        <v>169</v>
+      </c>
+      <c r="B26" s="16">
+        <v>3327</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="16">
+        <v>24</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="16">
+        <v>169</v>
+      </c>
+      <c r="B27" s="16">
+        <v>3329</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="16">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="16">
+        <v>170</v>
+      </c>
+      <c r="B28" s="16">
+        <v>3277</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="16">
+        <v>26</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="16">
+        <v>170</v>
+      </c>
+      <c r="B29" s="16">
+        <v>3301</v>
+      </c>
+      <c r="C29" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="16">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="16">
+        <v>170</v>
+      </c>
+      <c r="B30" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="16">
+        <v>28</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="16">
+        <v>170</v>
+      </c>
+      <c r="B31" s="16">
+        <v>3303</v>
+      </c>
+      <c r="C31" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="16">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="16">
+        <v>170</v>
+      </c>
+      <c r="B32" s="16">
+        <v>3304</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D32" s="16">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="16">
+        <v>170</v>
+      </c>
+      <c r="B33" s="16">
+        <v>3305</v>
+      </c>
+      <c r="C33" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="16">
+        <v>31</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="16">
+        <v>170</v>
+      </c>
+      <c r="B34" s="16">
+        <v>3306</v>
+      </c>
+      <c r="C34" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D34" s="16">
+        <v>32</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="16">
+        <v>170</v>
+      </c>
+      <c r="B35" s="16">
+        <v>3307</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="16">
+        <v>33</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="16">
+        <v>170</v>
+      </c>
+      <c r="B36" s="16">
+        <v>3308</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="16">
+        <v>34</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="16">
+        <v>170</v>
+      </c>
+      <c r="B37" s="16">
+        <v>3309</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="16">
+        <v>35</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="16">
+        <v>170</v>
+      </c>
+      <c r="B38" s="16">
+        <v>3310</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="16">
+        <v>36</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="16">
+        <v>170</v>
+      </c>
+      <c r="B39" s="16">
+        <v>3311</v>
+      </c>
+      <c r="C39" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D39" s="16">
+        <v>37</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="16">
+        <v>170</v>
+      </c>
+      <c r="B40" s="16">
+        <v>3312</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="16">
+        <v>38</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="16">
+        <v>170</v>
+      </c>
+      <c r="B41" s="16">
+        <v>3313</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="16">
+        <v>39</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="16">
+        <v>170</v>
+      </c>
+      <c r="B42" s="16">
+        <v>3315</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="16">
+        <v>40</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="16">
+        <v>170</v>
+      </c>
+      <c r="B43" s="16">
+        <v>3317</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="16">
+        <v>41</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="16">
+        <v>171</v>
+      </c>
+      <c r="B44" s="16">
+        <v>3277</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="16">
+        <v>42</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="16">
+        <v>171</v>
+      </c>
+      <c r="B45" s="16">
+        <v>3279</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="16">
+        <v>43</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="16">
+        <v>171</v>
+      </c>
+      <c r="B46" s="16">
+        <v>3280</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D46" s="16">
+        <v>44</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="16">
+        <v>171</v>
+      </c>
+      <c r="B47" s="16">
+        <v>3281</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="16">
+        <v>45</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="16">
+        <v>171</v>
+      </c>
+      <c r="B48" s="16">
+        <v>3282</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="16">
+        <v>46</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="16">
+        <v>171</v>
+      </c>
+      <c r="B49" s="16">
+        <v>3283</v>
+      </c>
+      <c r="C49" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="16">
+        <v>47</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="16">
+        <v>171</v>
+      </c>
+      <c r="B50" s="16">
+        <v>3284</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="16">
+        <v>48</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="16">
+        <v>171</v>
+      </c>
+      <c r="B51" s="16">
+        <v>3285</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D51" s="16">
+        <v>49</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="16">
+        <v>171</v>
+      </c>
+      <c r="B52" s="16">
+        <v>3290</v>
+      </c>
+      <c r="C52" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="16">
+        <v>50</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="16">
+        <v>171</v>
+      </c>
+      <c r="B53" s="16">
+        <v>3293</v>
+      </c>
+      <c r="C53" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="16">
+        <v>51</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="16">
+        <v>171</v>
+      </c>
+      <c r="B54" s="16">
+        <v>3295</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D54" s="16">
+        <v>52</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="16">
+        <v>171</v>
+      </c>
+      <c r="B55" s="16">
+        <v>3299</v>
+      </c>
+      <c r="C55" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D55" s="16">
+        <v>53</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="16">
+        <v>171</v>
+      </c>
+      <c r="B56" s="16">
+        <v>3300</v>
+      </c>
+      <c r="C56" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D56" s="16">
+        <v>54</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="16">
+        <v>171</v>
+      </c>
+      <c r="B57" s="16">
+        <v>3301</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D57" s="16">
+        <v>55</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="16">
+        <v>171</v>
+      </c>
+      <c r="B58" s="16">
+        <v>3302</v>
+      </c>
+      <c r="C58" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="16">
+        <v>56</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="16">
+        <v>171</v>
+      </c>
+      <c r="B59" s="16">
+        <v>3304</v>
+      </c>
+      <c r="C59" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D59" s="16">
+        <v>57</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="16">
+        <v>171</v>
+      </c>
+      <c r="B60" s="16">
+        <v>3306</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D60" s="16">
+        <v>58</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="16">
+        <v>171</v>
+      </c>
+      <c r="B61" s="16">
+        <v>3307</v>
+      </c>
+      <c r="C61" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D61" s="16">
+        <v>59</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="16">
+        <v>171</v>
+      </c>
+      <c r="B62" s="16">
+        <v>3308</v>
+      </c>
+      <c r="C62" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D62" s="16">
+        <v>60</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="16">
+        <v>171</v>
+      </c>
+      <c r="B63" s="16">
+        <v>3310</v>
+      </c>
+      <c r="C63" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D63" s="16">
+        <v>61</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="16">
+        <v>171</v>
+      </c>
+      <c r="B64" s="16">
+        <v>3311</v>
+      </c>
+      <c r="C64" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D64" s="16">
+        <v>62</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="16">
+        <v>171</v>
+      </c>
+      <c r="B65" s="16">
+        <v>3312</v>
+      </c>
+      <c r="C65" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D65" s="16">
+        <v>63</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="16">
+        <v>171</v>
+      </c>
+      <c r="B66" s="16">
+        <v>3313</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D66" s="16">
+        <v>64</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="16">
+        <v>171</v>
+      </c>
+      <c r="B67" s="16">
+        <v>3318</v>
+      </c>
+      <c r="C67" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D67" s="16">
+        <v>65</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="16">
+        <v>171</v>
+      </c>
+      <c r="B68" s="16">
+        <v>3319</v>
+      </c>
+      <c r="C68" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D68" s="16">
+        <v>66</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="16">
+        <v>171</v>
+      </c>
+      <c r="B69" s="16">
+        <v>3321</v>
+      </c>
+      <c r="C69" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D69" s="16">
+        <v>67</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="16">
+        <v>171</v>
+      </c>
+      <c r="B70" s="16">
+        <v>3325</v>
+      </c>
+      <c r="C70" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D70" s="16">
+        <v>68</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="16">
+        <v>171</v>
+      </c>
+      <c r="B71" s="16">
+        <v>3326</v>
+      </c>
+      <c r="C71" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D71" s="16">
+        <v>69</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="16">
+        <v>171</v>
+      </c>
+      <c r="B72" s="16">
+        <v>3327</v>
+      </c>
+      <c r="C72" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D72" s="16">
+        <v>70</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="16">
+        <v>171</v>
+      </c>
+      <c r="B73" s="16">
+        <v>3328</v>
+      </c>
+      <c r="C73" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="16">
+        <v>71</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="16">
+        <v>172</v>
+      </c>
+      <c r="B74" s="16">
+        <v>3289</v>
+      </c>
+      <c r="C74" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D74" s="16">
+        <v>72</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="16">
+        <v>172</v>
+      </c>
+      <c r="B75" s="16">
+        <v>3290</v>
+      </c>
+      <c r="C75" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D75" s="16">
+        <v>73</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="16">
+        <v>172</v>
+      </c>
+      <c r="B76" s="16">
+        <v>3291</v>
+      </c>
+      <c r="C76" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D76" s="16">
+        <v>74</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="16">
+        <v>172</v>
+      </c>
+      <c r="B77" s="16">
+        <v>3292</v>
+      </c>
+      <c r="C77" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D77" s="16">
+        <v>75</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="16">
+        <v>172</v>
+      </c>
+      <c r="B78" s="16">
+        <v>3293</v>
+      </c>
+      <c r="C78" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D78" s="16">
+        <v>76</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="16">
+        <v>173</v>
+      </c>
+      <c r="B79" s="16">
+        <v>3294</v>
+      </c>
+      <c r="C79" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D79" s="16">
+        <v>77</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="16">
+        <v>173</v>
+      </c>
+      <c r="B80" s="16">
+        <v>3295</v>
+      </c>
+      <c r="C80" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D80" s="16">
+        <v>78</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="16">
+        <v>173</v>
+      </c>
+      <c r="B81" s="16">
+        <v>3296</v>
+      </c>
+      <c r="C81" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D81" s="16">
+        <v>79</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="16">
+        <v>173</v>
+      </c>
+      <c r="B82" s="16">
+        <v>3297</v>
+      </c>
+      <c r="C82" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D82" s="16">
+        <v>80</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="16">
+        <v>173</v>
+      </c>
+      <c r="B83" s="16">
+        <v>3298</v>
+      </c>
+      <c r="C83" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="16">
+        <v>81</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="16">
+        <v>173</v>
+      </c>
+      <c r="B84" s="16">
+        <v>3299</v>
+      </c>
+      <c r="C84" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D84" s="16">
+        <v>82</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="16">
+        <v>173</v>
+      </c>
+      <c r="B85" s="16">
+        <v>3300</v>
+      </c>
+      <c r="C85" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D85" s="16">
+        <v>83</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="16">
+        <v>173</v>
+      </c>
+      <c r="B86" s="16">
+        <v>3314</v>
+      </c>
+      <c r="C86" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D86" s="16">
+        <v>84</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="16">
+        <v>173</v>
+      </c>
+      <c r="B87" s="16">
+        <v>3315</v>
+      </c>
+      <c r="C87" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D87" s="16">
+        <v>85</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="16">
+        <v>173</v>
+      </c>
+      <c r="B88" s="16">
+        <v>3316</v>
+      </c>
+      <c r="C88" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D88" s="16">
+        <v>86</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="16">
+        <v>173</v>
+      </c>
+      <c r="B89" s="16">
+        <v>3317</v>
+      </c>
+      <c r="C89" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D89" s="16">
+        <v>87</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="16">
+        <v>173</v>
+      </c>
+      <c r="B90" s="16">
+        <v>3330</v>
+      </c>
+      <c r="C90" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D90" s="16">
+        <v>88</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="16">
+        <v>174</v>
+      </c>
+      <c r="B91" s="16">
+        <v>3307</v>
+      </c>
+      <c r="C91" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D91" s="16">
+        <v>89</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="16">
+        <v>174</v>
+      </c>
+      <c r="B92" s="16">
+        <v>3308</v>
+      </c>
+      <c r="C92" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D92" s="16">
+        <v>90</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="16">
+        <v>174</v>
+      </c>
+      <c r="B93" s="16">
+        <v>3310</v>
+      </c>
+      <c r="C93" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D93" s="16">
+        <v>91</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="16">
+        <v>174</v>
+      </c>
+      <c r="B94" s="16">
+        <v>3311</v>
+      </c>
+      <c r="C94" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D94" s="16">
+        <v>92</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="16">
+        <v>174</v>
+      </c>
+      <c r="B95" s="16">
+        <v>3312</v>
+      </c>
+      <c r="C95" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D95" s="16">
+        <v>93</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="16">
+        <v>174</v>
+      </c>
+      <c r="B96" s="16">
+        <v>3313</v>
+      </c>
+      <c r="C96" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D96" s="16">
+        <v>94</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="16">
+        <v>174</v>
+      </c>
+      <c r="B97" s="16">
+        <v>3318</v>
+      </c>
+      <c r="C97" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D97" s="16">
+        <v>95</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="16">
+        <v>174</v>
+      </c>
+      <c r="B98" s="16">
+        <v>3319</v>
+      </c>
+      <c r="C98" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D98" s="16">
+        <v>96</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="16">
+        <v>174</v>
+      </c>
+      <c r="B99" s="16">
+        <v>3320</v>
+      </c>
+      <c r="C99" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D99" s="16">
+        <v>97</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="16">
+        <v>174</v>
+      </c>
+      <c r="B100" s="16">
+        <v>3321</v>
+      </c>
+      <c r="C100" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D100" s="16">
+        <v>98</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101" s="16">
+        <v>174</v>
+      </c>
+      <c r="B101" s="16">
+        <v>3322</v>
+      </c>
+      <c r="C101" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D101" s="16">
+        <v>99</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="16">
+        <v>174</v>
+      </c>
+      <c r="B102" s="16">
+        <v>3323</v>
+      </c>
+      <c r="C102" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D102" s="16">
+        <v>100</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103" s="16">
+        <v>174</v>
+      </c>
+      <c r="B103" s="16">
+        <v>3328</v>
+      </c>
+      <c r="C103" s="16">
+        <v>2020</v>
+      </c>
+      <c r="D103" s="16">
+        <v>101</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +3018,7 @@
     <row r="3" spans="1:6">
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
@@ -941,7 +3032,7 @@
     <row r="5" spans="1:6">
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -949,7 +3040,7 @@
     <row r="6" spans="1:6">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -957,7 +3048,7 @@
     <row r="7" spans="1:6">
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -965,7 +3056,7 @@
     <row r="8" spans="1:6">
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
